--- a/data_log_sheets/TT24_quantum_light_log_blank.xlsx
+++ b/data_log_sheets/TT24_quantum_light_log_blank.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eaperkowski/git/2024_TT_phys/data_log_sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFA58FDB-8371-6A46-937C-C328740445AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C1D12A0-DD58-7348-9777-EB54F9B00241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4260" yWindow="1060" windowWidth="27400" windowHeight="21820" xr2:uid="{68CAAF70-BF60-A342-92F3-1720061C7372}"/>
+    <workbookView xWindow="4260" yWindow="1060" windowWidth="35840" windowHeight="27740" xr2:uid="{68CAAF70-BF60-A342-92F3-1720061C7372}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -53,12 +53,6 @@
     <t>NOTES</t>
   </si>
   <si>
-    <t>LIGHT AVAILABILITY ABOVE GM CANOPY</t>
-  </si>
-  <si>
-    <t>LIGHT AVAILABILITY BELOW GM CANOPY</t>
-  </si>
-  <si>
     <t>GM DENSITY</t>
   </si>
   <si>
@@ -70,12 +64,18 @@
   <si>
     <t>QUADRAT</t>
   </si>
+  <si>
+    <t>LIGHT AVAILABILITY                 ABOVE GM CANOPY</t>
+  </si>
+  <si>
+    <t>LIGHT AVAILABILITY                  BELOW GM CANOPY</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -84,22 +84,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="12"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -263,59 +275,172 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -650,10 +775,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60D968DC-53D9-454B-8B94-11BF1BFF97AC}">
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="129" zoomScaleNormal="100" zoomScalePageLayoutView="129" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -663,258 +788,357 @@
     <col min="11" max="11" width="27.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
+    <row r="1" spans="1:11" ht="8" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
     </row>
     <row r="2" spans="1:11" ht="32" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="13" t="s">
+      <c r="A2" s="8"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="11"/>
+      <c r="E2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="12"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="12"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="8"/>
+    </row>
+    <row r="3" spans="1:11" ht="31" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="15"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="15"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="1"/>
-    </row>
-    <row r="3" spans="1:11" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="F3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="22" t="s">
+      <c r="H3" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="23" t="s">
+      <c r="I3" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="21" t="s">
+      <c r="J3" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="19" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="32" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="5"/>
-    </row>
-    <row r="5" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="5"/>
-    </row>
-    <row r="6" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="5"/>
-    </row>
-    <row r="7" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="5"/>
-    </row>
-    <row r="8" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="5"/>
-    </row>
-    <row r="9" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="2"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="5"/>
-    </row>
-    <row r="10" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="2"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="5"/>
-    </row>
-    <row r="11" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="2"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="5"/>
-    </row>
-    <row r="12" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="2"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="5"/>
-    </row>
-    <row r="13" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="2"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="5"/>
-    </row>
-    <row r="14" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="2"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="5"/>
-    </row>
-    <row r="15" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="2"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="5"/>
-    </row>
-    <row r="16" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="2"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="5"/>
-    </row>
-    <row r="17" spans="1:11" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="5"/>
-    </row>
-    <row r="18" spans="1:11" ht="32" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="19" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:11" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="20"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="21"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="23"/>
+    </row>
+    <row r="6" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="20"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="21"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="23"/>
+    </row>
+    <row r="8" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="20"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="21"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="23"/>
+    </row>
+    <row r="10" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="20"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="21"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="23"/>
+    </row>
+    <row r="12" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="20"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="21"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="23"/>
+    </row>
+    <row r="14" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="20"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="2"/>
+    </row>
+    <row r="15" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="21"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="23"/>
+    </row>
+    <row r="16" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="20"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="2"/>
+    </row>
+    <row r="17" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="21"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="23"/>
+    </row>
+    <row r="18" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="20"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="2"/>
+    </row>
+    <row r="19" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="21"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="23"/>
+    </row>
+    <row r="20" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="20"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="2"/>
+    </row>
+    <row r="21" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="21"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="23"/>
+    </row>
+    <row r="22" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="20"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="2"/>
+    </row>
+    <row r="23" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="21"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="23"/>
+    </row>
+    <row r="24" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="1"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="2"/>
+    </row>
+    <row r="25" spans="1:11" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="24"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="23"/>
+    </row>
+    <row r="26" spans="1:11" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="E2:G2"/>
@@ -922,7 +1146,7 @@
     <mergeCell ref="C2:D2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" copies="50"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;"-,Bold"DATE: _____________________
 PLOT: _____________________&amp;C&amp;"-,Bold"STARTING TIME: _______________________
